--- a/Stats/Monthly_Stats/2019/Mar_2019.xlsx
+++ b/Stats/Monthly_Stats/2019/Mar_2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>LAST NAME</t>
   </si>
@@ -118,6 +118,9 @@
     <t>COTNER</t>
   </si>
   <si>
+    <t>CROWELL</t>
+  </si>
+  <si>
     <t>DATTILIO</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>FOUST</t>
   </si>
   <si>
+    <t>GAZZALE</t>
+  </si>
+  <si>
     <t>GELHAUS</t>
   </si>
   <si>
@@ -139,6 +145,12 @@
     <t>JOHNSON</t>
   </si>
   <si>
+    <t>JOHNSTON</t>
+  </si>
+  <si>
+    <t>KHAN</t>
+  </si>
+  <si>
     <t>LEE</t>
   </si>
   <si>
@@ -154,6 +166,12 @@
     <t>MELCHER</t>
   </si>
   <si>
+    <t>SCHEER</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
     <t>TREXLER</t>
   </si>
   <si>
@@ -172,6 +190,9 @@
     <t>WRIGHT</t>
   </si>
   <si>
+    <t>SKIB</t>
+  </si>
+  <si>
     <t>STRUBLE</t>
   </si>
   <si>
@@ -202,6 +223,9 @@
     <t>CALEB</t>
   </si>
   <si>
+    <t>RYAN</t>
+  </si>
+  <si>
     <t>THUMB</t>
   </si>
   <si>
@@ -211,6 +235,9 @@
     <t>ALYSSA</t>
   </si>
   <si>
+    <t>DOUG</t>
+  </si>
+  <si>
     <t>NICK</t>
   </si>
   <si>
@@ -223,6 +250,9 @@
     <t>PETER</t>
   </si>
   <si>
+    <t>ADEN</t>
+  </si>
+  <si>
     <t>MARK</t>
   </si>
   <si>
@@ -238,6 +268,12 @@
     <t>JAKE</t>
   </si>
   <si>
+    <t>JON</t>
+  </si>
+  <si>
+    <t>KYLE</t>
+  </si>
+  <si>
     <t>CAMERON</t>
   </si>
   <si>
@@ -251,6 +287,9 @@
   </si>
   <si>
     <t>BRANDON</t>
+  </si>
+  <si>
+    <t>JULIA</t>
   </si>
   <si>
     <t>ADAM</t>
@@ -268,8 +307,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +371,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,6 +454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -444,6 +489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,14 +665,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -718,7 +801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>23911</v>
       </c>
@@ -726,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -735,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -744,73 +827,73 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <v>29</v>
+      </c>
+      <c r="AB2">
+        <v>24</v>
+      </c>
+      <c r="AC2">
+        <v>25</v>
+      </c>
+      <c r="AD2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>3</v>
-      </c>
-      <c r="AA2">
-        <v>26</v>
-      </c>
-      <c r="AB2">
-        <v>22.5</v>
-      </c>
-      <c r="AC2">
-        <v>22</v>
-      </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>21654</v>
       </c>
@@ -818,10 +901,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -881,28 +964,28 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AA3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AB3">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC3">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>7.0000000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10238</v>
       </c>
@@ -910,7 +993,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -925,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -976,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="AC4">
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="AD4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>23275</v>
       </c>
@@ -1002,25 +1085,25 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1068,42 +1151,42 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="AA5">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="AB5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>2</v>
       </c>
       <c r="AD5">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>24822</v>
+        <v>22724</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1112,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1139,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1163,137 +1246,137 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AB6">
-        <v>5.5</v>
+        <v>34</v>
       </c>
       <c r="AC6">
-        <v>5</v>
+        <v>33.5</v>
       </c>
       <c r="AD6">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>20100</v>
+        <v>24822</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>47</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>82</v>
+      </c>
+      <c r="AA7">
+        <v>182</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-      <c r="AA7">
-        <v>38</v>
-      </c>
-      <c r="AB7">
-        <v>20</v>
-      </c>
-      <c r="AC7">
-        <v>18</v>
-      </c>
       <c r="AD7">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>22591</v>
+        <v>20100</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1323,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1347,30 +1430,30 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AA8">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AB8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AC8">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AD8">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>24011</v>
+        <v>22591</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1379,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1415,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1433,128 +1516,128 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="AA9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="AB9">
-        <v>25.5</v>
+        <v>7</v>
       </c>
       <c r="AC9">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>23440</v>
+        <v>16284</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>4</v>
       </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
+      <c r="AA10">
+        <v>11</v>
+      </c>
+      <c r="AB10">
+        <v>29.5</v>
+      </c>
+      <c r="AC10">
+        <v>30</v>
+      </c>
+      <c r="AD10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>32</v>
-      </c>
-      <c r="AA10">
-        <v>159</v>
-      </c>
-      <c r="AB10">
-        <v>1.5</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>30</v>
-      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>23323</v>
+        <v>24011</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1563,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1572,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1617,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1626,42 +1709,42 @@
         <v>2</v>
       </c>
       <c r="AA11">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="AB11">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="AC11">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>22742</v>
+        <v>23440</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1709,54 +1792,54 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AA12">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="AB12">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>20326</v>
+        <v>23323</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1801,54 +1884,54 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA13">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AB13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC13">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>24644</v>
+        <v>22742</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1893,36 +1976,36 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
+        <v>30</v>
+      </c>
+      <c r="AA14">
+        <v>99</v>
+      </c>
+      <c r="AB14">
+        <v>14</v>
+      </c>
+      <c r="AC14">
         <v>13</v>
-      </c>
-      <c r="AA14">
-        <v>37</v>
-      </c>
-      <c r="AB14">
-        <v>13</v>
-      </c>
-      <c r="AC14">
-        <v>19.5</v>
       </c>
       <c r="AD14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>24781</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1931,90 +2014,90 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>3</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>9</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AA15">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="AB15">
-        <v>12</v>
+        <v>31.5</v>
       </c>
       <c r="AC15">
-        <v>3</v>
+        <v>33.5</v>
       </c>
       <c r="AD15">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>23905</v>
+        <v>24446</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2023,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2062,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2077,36 +2160,36 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AA16">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="AB16">
-        <v>4</v>
+        <v>29.5</v>
       </c>
       <c r="AC16">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AD16">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>24615</v>
+        <v>20326</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2115,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2133,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2151,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2169,36 +2252,36 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AA17">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="AB17">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AC17">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AD17">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18633</v>
+        <v>24644</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2207,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2267,30 +2350,30 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AA18">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="AB18">
-        <v>25.5</v>
+        <v>17</v>
       </c>
       <c r="AC18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AD18">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>22779</v>
+        <v>24781</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2299,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2308,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2335,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2359,30 +2442,30 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AA19">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="AB19">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AC19">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>20098</v>
+        <v>23905</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2391,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2451,122 +2534,122 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="AA20">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="AB20">
-        <v>25.5</v>
+        <v>4</v>
       </c>
       <c r="AC20">
+        <v>6</v>
+      </c>
+      <c r="AD20">
         <v>23</v>
       </c>
-      <c r="AD20">
-        <v>2</v>
-      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>23927</v>
+        <v>24615</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>22</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>46</v>
+      </c>
+      <c r="AA21">
+        <v>144</v>
+      </c>
+      <c r="AB21">
+        <v>10</v>
+      </c>
+      <c r="AC21">
         <v>7</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+      <c r="AD21">
         <v>18</v>
       </c>
-      <c r="AA21">
-        <v>97</v>
-      </c>
-      <c r="AB21">
-        <v>11</v>
-      </c>
-      <c r="AC21">
-        <v>10.5</v>
-      </c>
-      <c r="AD21">
-        <v>17</v>
-      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>24678</v>
+        <v>23607</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2575,17 +2658,17 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
@@ -2611,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2629,36 +2712,36 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA22">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AB22">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AC22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD22">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>24688</v>
+        <v>24686</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2667,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2676,81 +2759,81 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+      <c r="AA23">
+        <v>32</v>
+      </c>
+      <c r="AB23">
+        <v>27.5</v>
+      </c>
+      <c r="AC23">
+        <v>23.5</v>
+      </c>
+      <c r="AD23">
         <v>2</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>6</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>8</v>
-      </c>
-      <c r="AA23">
-        <v>63</v>
-      </c>
-      <c r="AB23">
-        <v>18.5</v>
-      </c>
-      <c r="AC23">
-        <v>15</v>
-      </c>
-      <c r="AD23">
-        <v>8</v>
-      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>25437</v>
+        <v>18633</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2759,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2798,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2819,30 +2902,30 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AA24">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="AB24">
-        <v>10</v>
+        <v>31.5</v>
       </c>
       <c r="AC24">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AD24">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>25370</v>
+        <v>22779</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2851,90 +2934,90 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>21</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>21</v>
+      </c>
+      <c r="AA25">
+        <v>80</v>
+      </c>
+      <c r="AB25">
+        <v>18</v>
+      </c>
+      <c r="AC25">
+        <v>15</v>
+      </c>
+      <c r="AD25">
         <v>8</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>8</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>28</v>
-      </c>
-      <c r="AA25">
-        <v>137</v>
-      </c>
-      <c r="AB25">
-        <v>3</v>
-      </c>
-      <c r="AC25">
-        <v>4</v>
-      </c>
-      <c r="AD25">
-        <v>27</v>
-      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25345</v>
+        <v>20098</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2943,108 +3026,108 @@
         <v>0</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>9</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>12</v>
-      </c>
       <c r="AA26">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AB26">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AC26">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AD26">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>24974</v>
+        <v>23927</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3095,30 +3178,30 @@
         <v>0</v>
       </c>
       <c r="Z27">
+        <v>41</v>
+      </c>
+      <c r="AA27">
+        <v>128</v>
+      </c>
+      <c r="AB27">
         <v>12</v>
       </c>
-      <c r="AA27">
-        <v>46</v>
-      </c>
-      <c r="AB27">
-        <v>15</v>
-      </c>
       <c r="AC27">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD27">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>25362</v>
+        <v>24678</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3127,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3136,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3163,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3181,36 +3264,36 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AA28">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AB28">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AC28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AD28">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>25168</v>
+        <v>24688</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3219,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3228,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3246,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3255,46 +3338,691 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>23</v>
+      </c>
+      <c r="AA29">
+        <v>81</v>
+      </c>
+      <c r="AB29">
+        <v>16</v>
+      </c>
+      <c r="AC29">
+        <v>14</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>24725</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <v>10</v>
+      </c>
+      <c r="AB30">
+        <v>27.5</v>
+      </c>
+      <c r="AC30">
+        <v>31.5</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>25437</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>27</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>45</v>
+      </c>
+      <c r="AA31">
+        <v>134</v>
+      </c>
+      <c r="AB31">
+        <v>11</v>
+      </c>
+      <c r="AC31">
+        <v>9</v>
+      </c>
+      <c r="AD31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>25370</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>22</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>11</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>51</v>
+      </c>
+      <c r="AA32">
+        <v>166</v>
+      </c>
+      <c r="AB32">
+        <v>8</v>
+      </c>
+      <c r="AC32">
+        <v>5</v>
+      </c>
+      <c r="AD32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>25345</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>19</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>27</v>
+      </c>
+      <c r="AA33">
+        <v>55</v>
+      </c>
+      <c r="AB33">
+        <v>15</v>
+      </c>
+      <c r="AC33">
+        <v>17</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>24974</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>14</v>
+      </c>
+      <c r="AA34">
+        <v>48</v>
+      </c>
+      <c r="AB34">
         <v>20</v>
       </c>
-      <c r="AA29">
-        <v>92</v>
-      </c>
-      <c r="AB29">
+      <c r="AC34">
+        <v>19</v>
+      </c>
+      <c r="AD34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>25362</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>22</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>58</v>
+      </c>
+      <c r="AA35">
+        <v>142</v>
+      </c>
+      <c r="AB35">
+        <v>5</v>
+      </c>
+      <c r="AC35">
         <v>8</v>
       </c>
-      <c r="AC29">
-        <v>12</v>
-      </c>
-      <c r="AD29">
-        <v>19</v>
+      <c r="AD35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>25168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>56</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>57</v>
+      </c>
+      <c r="AA36">
+        <v>130</v>
+      </c>
+      <c r="AB36">
+        <v>6</v>
+      </c>
+      <c r="AC36">
+        <v>11</v>
+      </c>
+      <c r="AD36">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>